--- a/www/SSR_Example_Data_ramorum.xlsx
+++ b/www/SSR_Example_Data_ramorum.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17240" tabRatio="500" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>Name	Lineage	PrMS6	PrMS9c3	ILVOPrMS132/PrMS39a	PRMS45	PrMS43a	PrMS43b	ILVOPrMS133/PrMS43a	KI18	KI64	KI82ab	KI82a	KI82b	ILVOPrMS79ab	ILVOPrMS131	ILVOPrMS145abc	PrMS145a	PrMS145b	PrMS145c</t>
   </si>
@@ -97,164 +97,104 @@
     <t>PRMS45</t>
   </si>
   <si>
-    <t>PrMS43a</t>
-  </si>
-  <si>
-    <t>PrMS43b</t>
-  </si>
-  <si>
-    <t>ILVOPrMS133/PrMS43a</t>
-  </si>
-  <si>
     <t>KI18</t>
   </si>
   <si>
     <t>KI64</t>
   </si>
   <si>
-    <t>KI82ab</t>
-  </si>
-  <si>
-    <t>KI82a</t>
-  </si>
-  <si>
-    <t>KI82b</t>
-  </si>
-  <si>
-    <t>ILVOPrMS79ab</t>
-  </si>
-  <si>
     <t>ILVOPrMS131</t>
   </si>
   <si>
-    <t>ILVOPrMS145abc</t>
-  </si>
-  <si>
-    <t>PrMS145a</t>
-  </si>
-  <si>
-    <t>PrMS145b</t>
-  </si>
-  <si>
-    <t>PrMS145c</t>
-  </si>
-  <si>
-    <t>169/172/0/0/0</t>
-  </si>
-  <si>
-    <t>221/231/0/0/0</t>
-  </si>
-  <si>
-    <t>136/252/0/0/0</t>
-  </si>
-  <si>
-    <t>172/192/0/0/0</t>
-  </si>
-  <si>
-    <t>373/373/0/0/0</t>
-  </si>
-  <si>
-    <t>489/489/0/0/0</t>
-  </si>
-  <si>
-    <t>373/489/0/0/0</t>
-  </si>
-  <si>
-    <t>224/278/0/0/0</t>
-  </si>
-  <si>
-    <t>112/116/0/0/0</t>
-  </si>
-  <si>
-    <t>167/179/197/239/0</t>
-  </si>
-  <si>
-    <t>167/239/0/0/0</t>
-  </si>
-  <si>
-    <t>179/179/0/0/0</t>
-  </si>
-  <si>
-    <t>197/197/0/0/0</t>
-  </si>
-  <si>
-    <t>0/0/0/0/0</t>
-  </si>
-  <si>
-    <t>169/169/0/0/0</t>
-  </si>
-  <si>
-    <t>223/229/0/0/0</t>
-  </si>
-  <si>
-    <t>142/148/0/0/0</t>
-  </si>
-  <si>
-    <t>168/192/0/0/0</t>
-  </si>
-  <si>
-    <t>222/266/0/0/0</t>
-  </si>
-  <si>
-    <t>355/401/0/0/0</t>
-  </si>
-  <si>
-    <t>114/142/0/0/0</t>
-  </si>
-  <si>
-    <t>342/354/356/0/0</t>
-  </si>
-  <si>
-    <t>167/179/185/197/245</t>
-  </si>
-  <si>
-    <t>167/197/0/0/0</t>
-  </si>
-  <si>
-    <t>185/245/0/0/0</t>
-  </si>
-  <si>
-    <t>149/149/0/0/0</t>
-  </si>
-  <si>
-    <t>150/230/0/0/0</t>
-  </si>
-  <si>
-    <t>114/132/142/246/0</t>
-  </si>
-  <si>
-    <t>132/246/0/0/0</t>
-  </si>
-  <si>
-    <t>370/406/0/0/0</t>
-  </si>
-  <si>
-    <t>347/385/0/0/0</t>
-  </si>
-  <si>
-    <t>112/114/116/212/0</t>
-  </si>
-  <si>
-    <t>114/212/0/0/0</t>
-  </si>
-  <si>
-    <t>348/350/396/0/0</t>
-  </si>
-  <si>
-    <t>query</t>
-  </si>
-  <si>
     <t>sample1</t>
   </si>
   <si>
     <t>sample2</t>
+  </si>
+  <si>
+    <t>169/172</t>
+  </si>
+  <si>
+    <t>221/231</t>
+  </si>
+  <si>
+    <t>136/252</t>
+  </si>
+  <si>
+    <t>172/192</t>
+  </si>
+  <si>
+    <t>373/489</t>
+  </si>
+  <si>
+    <t>224/278</t>
+  </si>
+  <si>
+    <t>347/383</t>
+  </si>
+  <si>
+    <t>150/234</t>
+  </si>
+  <si>
+    <t>221/221</t>
+  </si>
+  <si>
+    <t>152/158</t>
+  </si>
+  <si>
+    <t>173/173</t>
+  </si>
+  <si>
+    <t>226/226</t>
+  </si>
+  <si>
+    <t>349/365</t>
+  </si>
+  <si>
+    <t>278/342</t>
+  </si>
+  <si>
+    <t>169/169</t>
+  </si>
+  <si>
+    <t>223/229</t>
+  </si>
+  <si>
+    <t>142/148</t>
+  </si>
+  <si>
+    <t>168/192</t>
+  </si>
+  <si>
+    <t>149/149</t>
+  </si>
+  <si>
+    <t>222/266</t>
+  </si>
+  <si>
+    <t>355/405</t>
+  </si>
+  <si>
+    <t>394/406</t>
+  </si>
+  <si>
+    <t>0/0</t>
+  </si>
+  <si>
+    <t>ILVOPrMS133/PrMS43ab</t>
+  </si>
+  <si>
+    <t>sample3</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -276,6 +216,29 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -313,8 +276,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -774,197 +749,143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="D3" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="J4" s="1" t="s">
         <v>51</v>
       </c>
     </row>
